--- a/base_de_donnee/merise/Merise 02b - Exercices 2 Grand Prix.xlsx
+++ b/base_de_donnee/merise/Merise 02b - Exercices 2 Grand Prix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stagiaire\Documents\GitHub\FTurleque\abc_2105-perso\baseDeDonnee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stagiaire\Documents\GitHub\FTurleque\abc_2105-perso\base_de_donnee\merise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF95C3F-0CE2-4644-BB1C-C3E20BDA2FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AFA713-04E7-4BED-BFE7-9F9C5F1D5085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Mnémonique</t>
   </si>
@@ -46,6 +46,36 @@
   </si>
   <si>
     <t>Numérique</t>
+  </si>
+  <si>
+    <t>athlete_male</t>
+  </si>
+  <si>
+    <t>athlete_woman</t>
+  </si>
+  <si>
+    <t>athlete_winner</t>
+  </si>
+  <si>
+    <t>athletics_meetings</t>
+  </si>
+  <si>
+    <t>Athlète masculin</t>
+  </si>
+  <si>
+    <t>Athlète feminin</t>
+  </si>
+  <si>
+    <t>Athlète gagnants</t>
+  </si>
+  <si>
+    <t>sports_federation</t>
+  </si>
+  <si>
+    <t>Fedération Sportive</t>
+  </si>
+  <si>
+    <t>Rencontre Sportive</t>
   </si>
 </sst>
 </file>
@@ -81,10 +111,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,11 +416,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,23 +446,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="F2" t="s">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
